--- a/Survey/Human_rating.xlsx
+++ b/Survey/Human_rating.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Wen\Downloads\Human+versus+Machine+Image+Typicality+Categorization+Project_April+26,+2021_13.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Wen\Typicality_project\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45750463-DFFA-41A1-9481-B4D36AA106ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34444529-DF98-48C5-8545-68BB4823298C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$EQ$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$EQ$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="230">
   <si>
     <t>StartDate</t>
   </si>
@@ -681,6 +681,48 @@
   </si>
   <si>
     <t>R_12LTWwc0Hauqsss</t>
+  </si>
+  <si>
+    <t>23.118.248.198</t>
+  </si>
+  <si>
+    <t>R_2EFVIBwq7m7ArhQ</t>
+  </si>
+  <si>
+    <t>72.76.165.22</t>
+  </si>
+  <si>
+    <t>R_3KI8acLVC7owT8l</t>
+  </si>
+  <si>
+    <t>98.206.217.142</t>
+  </si>
+  <si>
+    <t>R_323n8Z5j4vJl74W</t>
+  </si>
+  <si>
+    <t>73.195.162.244</t>
+  </si>
+  <si>
+    <t>R_3qpqyoncC0Ktgu1</t>
+  </si>
+  <si>
+    <t>R_3nTbzvQLz4HC1YV</t>
+  </si>
+  <si>
+    <t>108.45.101.221</t>
+  </si>
+  <si>
+    <t>R_2xSnC8UmVszXPj3</t>
+  </si>
+  <si>
+    <t>R_22t9wgBLwoJaFpX</t>
+  </si>
+  <si>
+    <t>72.66.74.212</t>
+  </si>
+  <si>
+    <t>R_23ZzctKJlsDgn51</t>
   </si>
 </sst>
 </file>
@@ -718,11 +760,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -731,7 +773,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -739,17 +781,17 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -759,7 +801,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -767,12 +809,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -781,18 +823,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1131,16 +1173,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EQ25"/>
+  <dimension ref="A1:EQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ3" sqref="AJ3"/>
+      <selection pane="bottomLeft" activeCell="EC11" sqref="EC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="14.265625" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="14" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.796875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
@@ -1157,9 +1199,8 @@
     <col min="16" max="16" width="19.86328125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14.86328125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18.265625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.59765625" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="4.19921875" customWidth="1"/>
-    <col min="27" max="148" width="4.06640625" customWidth="1"/>
+    <col min="19" max="19" width="157.1328125" hidden="1" customWidth="1"/>
+    <col min="20" max="191" width="4.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:147" x14ac:dyDescent="0.45">
@@ -1605,7 +1646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:147" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -11794,7 +11835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:147" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:147" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44312.040208333332</v>
       </c>
@@ -11852,396 +11893,3940 @@
       <c r="S25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T25" s="10">
-        <v>7</v>
-      </c>
-      <c r="U25" s="11">
-        <v>7</v>
-      </c>
-      <c r="V25" s="11">
-        <v>7</v>
-      </c>
-      <c r="W25" s="11">
-        <v>7</v>
-      </c>
-      <c r="X25" s="11">
-        <v>7</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD25" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI25" s="12">
-        <v>7</v>
-      </c>
-      <c r="AJ25" s="10">
-        <v>7</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>5</v>
-      </c>
-      <c r="AP25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AQ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AR25" s="11">
-        <v>4</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AW25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>7</v>
-      </c>
-      <c r="AY25" s="12">
-        <v>7</v>
-      </c>
-      <c r="AZ25" s="10">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BB25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BC25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BD25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BE25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BF25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BG25" s="11">
-        <v>5</v>
-      </c>
-      <c r="BH25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BI25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BJ25" s="11">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BL25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BM25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BN25" s="11">
-        <v>5</v>
-      </c>
-      <c r="BO25" s="12">
-        <v>1</v>
-      </c>
-      <c r="BP25" s="10">
-        <v>7</v>
-      </c>
-      <c r="BQ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BR25" s="11">
-        <v>4</v>
-      </c>
-      <c r="BS25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BT25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BU25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BV25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BW25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BX25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BY25" s="11">
-        <v>7</v>
-      </c>
-      <c r="BZ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CA25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CB25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CC25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CD25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CE25" s="12">
-        <v>7</v>
-      </c>
-      <c r="CF25" s="10">
-        <v>7</v>
-      </c>
-      <c r="CG25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CH25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CI25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CJ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CK25" s="11">
-        <v>5</v>
-      </c>
-      <c r="CL25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CM25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CN25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CO25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CP25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CQ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CR25" s="11">
-        <v>3</v>
-      </c>
-      <c r="CS25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CT25" s="11">
-        <v>5</v>
-      </c>
-      <c r="CU25" s="12">
-        <v>5</v>
-      </c>
-      <c r="CV25" s="10">
-        <v>7</v>
-      </c>
-      <c r="CW25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CX25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CY25" s="11">
-        <v>7</v>
-      </c>
-      <c r="CZ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DA25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DB25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DC25" s="11">
-        <v>4</v>
-      </c>
-      <c r="DD25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DE25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DF25" s="11">
-        <v>5</v>
-      </c>
-      <c r="DG25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DH25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DI25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DJ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DK25" s="12">
-        <v>7</v>
-      </c>
-      <c r="DL25" s="10">
-        <v>7</v>
-      </c>
-      <c r="DM25" s="11">
-        <v>5</v>
-      </c>
-      <c r="DN25" s="11">
-        <v>6</v>
-      </c>
-      <c r="DO25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DP25" s="11">
-        <v>6</v>
-      </c>
-      <c r="DQ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="DR25" s="11">
-        <v>6</v>
-      </c>
-      <c r="DS25" s="11">
-        <v>1</v>
-      </c>
-      <c r="DT25" s="11">
-        <v>6</v>
-      </c>
-      <c r="DU25" s="11">
-        <v>6</v>
-      </c>
-      <c r="DV25" s="11">
-        <v>5</v>
-      </c>
-      <c r="DW25" s="11">
-        <v>3</v>
-      </c>
-      <c r="DX25" s="11">
-        <v>2</v>
-      </c>
-      <c r="DY25" s="11">
-        <v>5</v>
-      </c>
-      <c r="DZ25" s="11">
-        <v>3</v>
-      </c>
-      <c r="EA25" s="12">
-        <v>7</v>
-      </c>
-      <c r="EB25" s="10">
-        <v>4</v>
-      </c>
-      <c r="EC25" s="11">
-        <v>7</v>
-      </c>
-      <c r="ED25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EE25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EF25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EG25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EH25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EI25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EJ25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EK25" s="11">
-        <v>3</v>
-      </c>
-      <c r="EL25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EM25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EN25" s="11">
-        <v>1</v>
-      </c>
-      <c r="EO25" s="11">
-        <v>7</v>
-      </c>
-      <c r="EP25" s="11">
-        <v>1</v>
-      </c>
-      <c r="EQ25" s="12">
-        <v>7</v>
+      <c r="T25" s="7">
+        <v>7</v>
+      </c>
+      <c r="U25" s="8">
+        <v>7</v>
+      </c>
+      <c r="V25" s="8">
+        <v>7</v>
+      </c>
+      <c r="W25" s="8">
+        <v>7</v>
+      </c>
+      <c r="X25" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY25" s="9">
+        <v>7</v>
+      </c>
+      <c r="AZ25" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BB25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BC25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BD25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG25" s="8">
+        <v>5</v>
+      </c>
+      <c r="BH25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BI25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ25" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BL25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BM25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN25" s="8">
+        <v>5</v>
+      </c>
+      <c r="BO25" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP25" s="7">
+        <v>7</v>
+      </c>
+      <c r="BQ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BR25" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BT25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BW25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BX25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BY25" s="8">
+        <v>7</v>
+      </c>
+      <c r="BZ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CA25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CB25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CC25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CD25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CE25" s="9">
+        <v>7</v>
+      </c>
+      <c r="CF25" s="7">
+        <v>7</v>
+      </c>
+      <c r="CG25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CK25" s="8">
+        <v>5</v>
+      </c>
+      <c r="CL25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CM25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CP25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CQ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR25" s="8">
+        <v>3</v>
+      </c>
+      <c r="CS25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CT25" s="8">
+        <v>5</v>
+      </c>
+      <c r="CU25" s="9">
+        <v>5</v>
+      </c>
+      <c r="CV25" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CX25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CY25" s="8">
+        <v>7</v>
+      </c>
+      <c r="CZ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DB25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC25" s="8">
+        <v>4</v>
+      </c>
+      <c r="DD25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DE25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF25" s="8">
+        <v>5</v>
+      </c>
+      <c r="DG25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DH25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DI25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DJ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DK25" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL25" s="7">
+        <v>7</v>
+      </c>
+      <c r="DM25" s="8">
+        <v>5</v>
+      </c>
+      <c r="DN25" s="8">
+        <v>6</v>
+      </c>
+      <c r="DO25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DP25" s="8">
+        <v>6</v>
+      </c>
+      <c r="DQ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="DR25" s="8">
+        <v>6</v>
+      </c>
+      <c r="DS25" s="8">
+        <v>1</v>
+      </c>
+      <c r="DT25" s="8">
+        <v>6</v>
+      </c>
+      <c r="DU25" s="8">
+        <v>6</v>
+      </c>
+      <c r="DV25" s="8">
+        <v>5</v>
+      </c>
+      <c r="DW25" s="8">
+        <v>3</v>
+      </c>
+      <c r="DX25" s="8">
+        <v>2</v>
+      </c>
+      <c r="DY25" s="8">
+        <v>5</v>
+      </c>
+      <c r="DZ25" s="8">
+        <v>3</v>
+      </c>
+      <c r="EA25" s="9">
+        <v>7</v>
+      </c>
+      <c r="EB25" s="7">
+        <v>4</v>
+      </c>
+      <c r="EC25" s="8">
+        <v>7</v>
+      </c>
+      <c r="ED25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EE25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EF25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EG25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EH25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EI25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EJ25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EK25" s="8">
+        <v>3</v>
+      </c>
+      <c r="EL25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EM25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EN25" s="8">
+        <v>1</v>
+      </c>
+      <c r="EO25" s="8">
+        <v>7</v>
+      </c>
+      <c r="EP25" s="8">
+        <v>1</v>
+      </c>
+      <c r="EQ25" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44313.577766203707</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44313.584247685183</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>560</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44313.584258275463</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26">
+        <v>37.4967041015625</v>
+      </c>
+      <c r="O26">
+        <v>-122.26649475097656</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R26">
+        <v>0.9</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" s="7">
+        <v>7</v>
+      </c>
+      <c r="U26" s="8">
+        <v>7</v>
+      </c>
+      <c r="V26" s="8">
+        <v>7</v>
+      </c>
+      <c r="W26" s="8">
+        <v>7</v>
+      </c>
+      <c r="X26" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>6</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AP26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR26" s="8">
+        <v>6</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX26" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY26" s="9">
+        <v>7</v>
+      </c>
+      <c r="AZ26" s="7">
+        <v>6</v>
+      </c>
+      <c r="BA26" s="8">
+        <v>5</v>
+      </c>
+      <c r="BB26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BC26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BD26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BG26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BH26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BI26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BK26" s="8">
+        <v>5</v>
+      </c>
+      <c r="BL26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BM26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BN26" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO26" s="9">
+        <v>4</v>
+      </c>
+      <c r="BP26" s="7">
+        <v>7</v>
+      </c>
+      <c r="BQ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BR26" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BT26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BV26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BW26" s="8">
+        <v>6</v>
+      </c>
+      <c r="BX26" s="8">
+        <v>7</v>
+      </c>
+      <c r="BY26" s="8">
+        <v>5</v>
+      </c>
+      <c r="BZ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CA26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CB26" s="8">
+        <v>5</v>
+      </c>
+      <c r="CC26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CD26" s="8">
+        <v>5</v>
+      </c>
+      <c r="CE26" s="9">
+        <v>7</v>
+      </c>
+      <c r="CF26" s="7">
+        <v>7</v>
+      </c>
+      <c r="CG26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI26" s="8">
+        <v>6</v>
+      </c>
+      <c r="CJ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CK26" s="8">
+        <v>6</v>
+      </c>
+      <c r="CL26" s="8">
+        <v>6</v>
+      </c>
+      <c r="CM26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CP26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CQ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR26" s="8">
+        <v>5</v>
+      </c>
+      <c r="CS26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CT26" s="8">
+        <v>6</v>
+      </c>
+      <c r="CU26" s="9">
+        <v>5</v>
+      </c>
+      <c r="CV26" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CX26" s="8">
+        <v>7</v>
+      </c>
+      <c r="CY26" s="8">
+        <v>5</v>
+      </c>
+      <c r="CZ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DB26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC26" s="8">
+        <v>5</v>
+      </c>
+      <c r="DD26" s="8">
+        <v>5</v>
+      </c>
+      <c r="DE26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF26" s="8">
+        <v>5</v>
+      </c>
+      <c r="DG26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DH26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DI26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DJ26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DK26" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL26" s="7">
+        <v>7</v>
+      </c>
+      <c r="DM26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DN26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DO26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DP26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DQ26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DR26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DS26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DT26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DU26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DV26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DW26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DX26" s="8">
+        <v>7</v>
+      </c>
+      <c r="DY26" s="8">
+        <v>6</v>
+      </c>
+      <c r="DZ26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EA26" s="9">
+        <v>7</v>
+      </c>
+      <c r="EB26" s="7">
+        <v>5</v>
+      </c>
+      <c r="EC26" s="8">
+        <v>7</v>
+      </c>
+      <c r="ED26" s="8">
+        <v>6</v>
+      </c>
+      <c r="EE26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EF26" s="8">
+        <v>7</v>
+      </c>
+      <c r="EG26" s="8">
+        <v>7</v>
+      </c>
+      <c r="EH26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EI26" s="8">
+        <v>7</v>
+      </c>
+      <c r="EJ26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EK26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EL26" s="8">
+        <v>6</v>
+      </c>
+      <c r="EM26" s="8">
+        <v>6</v>
+      </c>
+      <c r="EN26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EO26" s="8">
+        <v>7</v>
+      </c>
+      <c r="EP26" s="8">
+        <v>5</v>
+      </c>
+      <c r="EQ26" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44313.618819444448</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44313.627835648149</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>779</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44313.627851296296</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27">
+        <v>40.71820068359375</v>
+      </c>
+      <c r="O27">
+        <v>-74.047599792480469</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27">
+        <v>0.9</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T27" s="7">
+        <v>6</v>
+      </c>
+      <c r="U27" s="8">
+        <v>6</v>
+      </c>
+      <c r="V27" s="8">
+        <v>6</v>
+      </c>
+      <c r="W27" s="8">
+        <v>6</v>
+      </c>
+      <c r="X27" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>6</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AO27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AP27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AU27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AV27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AW27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>6</v>
+      </c>
+      <c r="AY27" s="9">
+        <v>6</v>
+      </c>
+      <c r="AZ27" s="7">
+        <v>4</v>
+      </c>
+      <c r="BA27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BB27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BC27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BD27" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE27" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF27" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG27" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BI27" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BL27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BM27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BN27" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO27" s="9">
+        <v>4</v>
+      </c>
+      <c r="BP27" s="7">
+        <v>6</v>
+      </c>
+      <c r="BQ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BR27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BT27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BV27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BW27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BX27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BY27" s="8">
+        <v>6</v>
+      </c>
+      <c r="BZ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CA27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CB27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CC27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CD27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CE27" s="9">
+        <v>6</v>
+      </c>
+      <c r="CF27" s="7">
+        <v>6</v>
+      </c>
+      <c r="CG27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CH27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CI27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CJ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CK27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CL27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CM27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CN27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CO27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CP27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CQ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CR27" s="8">
+        <v>3</v>
+      </c>
+      <c r="CS27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CT27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CU27" s="9">
+        <v>5</v>
+      </c>
+      <c r="CV27" s="7">
+        <v>6</v>
+      </c>
+      <c r="CW27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CX27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CY27" s="8">
+        <v>6</v>
+      </c>
+      <c r="CZ27" s="8">
+        <v>6</v>
+      </c>
+      <c r="DA27" s="8">
+        <v>7</v>
+      </c>
+      <c r="DB27" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC27" s="8">
+        <v>6</v>
+      </c>
+      <c r="DD27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DE27" s="8">
+        <v>6</v>
+      </c>
+      <c r="DF27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DG27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DH27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DI27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DJ27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DK27" s="9">
+        <v>6</v>
+      </c>
+      <c r="DL27" s="7">
+        <v>5</v>
+      </c>
+      <c r="DM27" s="8">
+        <v>4</v>
+      </c>
+      <c r="DN27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DO27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DP27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DQ27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DR27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DS27" s="8">
+        <v>4</v>
+      </c>
+      <c r="DT27" s="8">
+        <v>4</v>
+      </c>
+      <c r="DU27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DV27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DW27" s="8">
+        <v>5</v>
+      </c>
+      <c r="DX27" s="8">
+        <v>4</v>
+      </c>
+      <c r="DY27" s="8">
+        <v>4</v>
+      </c>
+      <c r="DZ27" s="8">
+        <v>4</v>
+      </c>
+      <c r="EA27" s="9">
+        <v>4</v>
+      </c>
+      <c r="EB27" s="7">
+        <v>5</v>
+      </c>
+      <c r="EC27" s="8">
+        <v>5</v>
+      </c>
+      <c r="ED27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EE27" s="8">
+        <v>4</v>
+      </c>
+      <c r="EF27" s="8">
+        <v>6</v>
+      </c>
+      <c r="EG27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EH27" s="8">
+        <v>6</v>
+      </c>
+      <c r="EI27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EJ27" s="8">
+        <v>4</v>
+      </c>
+      <c r="EK27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EL27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EM27" s="8">
+        <v>6</v>
+      </c>
+      <c r="EN27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EO27" s="8">
+        <v>5</v>
+      </c>
+      <c r="EP27" s="8">
+        <v>4</v>
+      </c>
+      <c r="EQ27" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44313.553738425922</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44313.637662037036</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>7251</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44313.63767851852</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28">
+        <v>42.030899047851563</v>
+      </c>
+      <c r="O28">
+        <v>-88.1177978515625</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T28" s="7">
+        <v>7</v>
+      </c>
+      <c r="U28" s="8">
+        <v>7</v>
+      </c>
+      <c r="V28" s="8">
+        <v>7</v>
+      </c>
+      <c r="W28" s="8">
+        <v>2</v>
+      </c>
+      <c r="X28" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ28" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX28" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY28" s="9">
+        <v>4</v>
+      </c>
+      <c r="AZ28" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA28" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BC28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BD28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BH28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BI28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BM28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN28" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO28" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="7">
+        <v>3</v>
+      </c>
+      <c r="BQ28" s="8">
+        <v>2</v>
+      </c>
+      <c r="BR28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS28" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT28" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BV28" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BY28" s="8">
+        <v>3</v>
+      </c>
+      <c r="BZ28" s="8">
+        <v>7</v>
+      </c>
+      <c r="CA28" s="8">
+        <v>5</v>
+      </c>
+      <c r="CB28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CC28" s="8">
+        <v>5</v>
+      </c>
+      <c r="CD28" s="8">
+        <v>6</v>
+      </c>
+      <c r="CE28" s="9">
+        <v>7</v>
+      </c>
+      <c r="CF28" s="7">
+        <v>6</v>
+      </c>
+      <c r="CG28" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH28" s="8">
+        <v>4</v>
+      </c>
+      <c r="CI28" s="8">
+        <v>3</v>
+      </c>
+      <c r="CJ28" s="8">
+        <v>6</v>
+      </c>
+      <c r="CK28" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM28" s="8">
+        <v>4</v>
+      </c>
+      <c r="CN28" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO28" s="8">
+        <v>3</v>
+      </c>
+      <c r="CP28" s="8">
+        <v>3</v>
+      </c>
+      <c r="CQ28" s="8">
+        <v>4</v>
+      </c>
+      <c r="CR28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CS28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CT28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CU28" s="9">
+        <v>1</v>
+      </c>
+      <c r="CV28" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW28" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX28" s="8">
+        <v>7</v>
+      </c>
+      <c r="CY28" s="8">
+        <v>1</v>
+      </c>
+      <c r="CZ28" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA28" s="8">
+        <v>7</v>
+      </c>
+      <c r="DB28" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC28" s="8">
+        <v>1</v>
+      </c>
+      <c r="DD28" s="8">
+        <v>6</v>
+      </c>
+      <c r="DE28" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF28" s="8">
+        <v>1</v>
+      </c>
+      <c r="DG28" s="8">
+        <v>5</v>
+      </c>
+      <c r="DH28" s="8">
+        <v>5</v>
+      </c>
+      <c r="DI28" s="8">
+        <v>6</v>
+      </c>
+      <c r="DJ28" s="8">
+        <v>5</v>
+      </c>
+      <c r="DK28" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL28" s="7">
+        <v>4</v>
+      </c>
+      <c r="DM28" s="8">
+        <v>3</v>
+      </c>
+      <c r="DN28" s="8">
+        <v>4</v>
+      </c>
+      <c r="DO28" s="8">
+        <v>5</v>
+      </c>
+      <c r="DP28" s="8">
+        <v>7</v>
+      </c>
+      <c r="DQ28" s="8">
+        <v>4</v>
+      </c>
+      <c r="DR28" s="8">
+        <v>4</v>
+      </c>
+      <c r="DS28" s="8">
+        <v>1</v>
+      </c>
+      <c r="DT28" s="8">
+        <v>5</v>
+      </c>
+      <c r="DU28" s="8">
+        <v>4</v>
+      </c>
+      <c r="DV28" s="8">
+        <v>4</v>
+      </c>
+      <c r="DW28" s="8">
+        <v>2</v>
+      </c>
+      <c r="DX28" s="8">
+        <v>3</v>
+      </c>
+      <c r="DY28" s="8">
+        <v>1</v>
+      </c>
+      <c r="DZ28" s="8">
+        <v>1</v>
+      </c>
+      <c r="EA28" s="9">
+        <v>2</v>
+      </c>
+      <c r="EB28" s="7">
+        <v>2</v>
+      </c>
+      <c r="EC28" s="8">
+        <v>5</v>
+      </c>
+      <c r="ED28" s="8">
+        <v>3</v>
+      </c>
+      <c r="EE28" s="8">
+        <v>5</v>
+      </c>
+      <c r="EF28" s="8">
+        <v>7</v>
+      </c>
+      <c r="EG28" s="8">
+        <v>4</v>
+      </c>
+      <c r="EH28" s="8">
+        <v>6</v>
+      </c>
+      <c r="EI28" s="8">
+        <v>4</v>
+      </c>
+      <c r="EJ28" s="8">
+        <v>2</v>
+      </c>
+      <c r="EK28" s="8">
+        <v>2</v>
+      </c>
+      <c r="EL28" s="8">
+        <v>3</v>
+      </c>
+      <c r="EM28" s="8">
+        <v>2</v>
+      </c>
+      <c r="EN28" s="8">
+        <v>3</v>
+      </c>
+      <c r="EO28" s="8">
+        <v>2</v>
+      </c>
+      <c r="EP28" s="8">
+        <v>1</v>
+      </c>
+      <c r="EQ28" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44313.668124999997</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44313.673564814817</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>470</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44313.673577754627</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N29">
+        <v>40.71820068359375</v>
+      </c>
+      <c r="O29">
+        <v>-74.047599792480469</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T29" s="7">
+        <v>7</v>
+      </c>
+      <c r="U29" s="8">
+        <v>7</v>
+      </c>
+      <c r="V29" s="8">
+        <v>7</v>
+      </c>
+      <c r="W29" s="8">
+        <v>7</v>
+      </c>
+      <c r="X29" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>4</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AP29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR29" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AU29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW29" s="8">
+        <v>6</v>
+      </c>
+      <c r="AX29" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY29" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ29" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BB29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BC29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BD29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BF29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BH29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BI29" s="8">
+        <v>6</v>
+      </c>
+      <c r="BJ29" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BL29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BM29" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN29" s="8">
+        <v>6</v>
+      </c>
+      <c r="BO29" s="9">
+        <v>4</v>
+      </c>
+      <c r="BP29" s="7">
+        <v>6</v>
+      </c>
+      <c r="BQ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BR29" s="8">
+        <v>2</v>
+      </c>
+      <c r="BS29" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT29" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV29" s="8">
+        <v>6</v>
+      </c>
+      <c r="BW29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BX29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BY29" s="8">
+        <v>7</v>
+      </c>
+      <c r="BZ29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CA29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CB29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CC29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CD29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CE29" s="9">
+        <v>6</v>
+      </c>
+      <c r="CF29" s="7">
+        <v>7</v>
+      </c>
+      <c r="CG29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CH29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CK29" s="8">
+        <v>4</v>
+      </c>
+      <c r="CL29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CM29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CO29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CP29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CQ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR29" s="8">
+        <v>3</v>
+      </c>
+      <c r="CS29" s="8">
+        <v>6</v>
+      </c>
+      <c r="CT29" s="8">
+        <v>3</v>
+      </c>
+      <c r="CU29" s="9">
+        <v>1</v>
+      </c>
+      <c r="CV29" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW29" s="8">
+        <v>5</v>
+      </c>
+      <c r="CX29" s="8">
+        <v>7</v>
+      </c>
+      <c r="CY29" s="8">
+        <v>3</v>
+      </c>
+      <c r="CZ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DB29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DC29" s="8">
+        <v>3</v>
+      </c>
+      <c r="DD29" s="8">
+        <v>7</v>
+      </c>
+      <c r="DE29" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF29" s="8">
+        <v>3</v>
+      </c>
+      <c r="DG29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DH29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DI29" s="8">
+        <v>3</v>
+      </c>
+      <c r="DJ29" s="8">
+        <v>3</v>
+      </c>
+      <c r="DK29" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL29" s="7">
+        <v>7</v>
+      </c>
+      <c r="DM29" s="8">
+        <v>4</v>
+      </c>
+      <c r="DN29" s="8">
+        <v>3</v>
+      </c>
+      <c r="DO29" s="8">
+        <v>5</v>
+      </c>
+      <c r="DP29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DQ29" s="8">
+        <v>7</v>
+      </c>
+      <c r="DR29" s="8">
+        <v>7</v>
+      </c>
+      <c r="DS29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DT29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DU29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DV29" s="8">
+        <v>5</v>
+      </c>
+      <c r="DW29" s="8">
+        <v>6</v>
+      </c>
+      <c r="DX29" s="8">
+        <v>5</v>
+      </c>
+      <c r="DY29" s="8">
+        <v>2</v>
+      </c>
+      <c r="DZ29" s="8">
+        <v>5</v>
+      </c>
+      <c r="EA29" s="9">
+        <v>5</v>
+      </c>
+      <c r="EB29" s="7">
+        <v>4</v>
+      </c>
+      <c r="EC29" s="8">
+        <v>5</v>
+      </c>
+      <c r="ED29" s="8">
+        <v>4</v>
+      </c>
+      <c r="EE29" s="8">
+        <v>6</v>
+      </c>
+      <c r="EF29" s="8">
+        <v>7</v>
+      </c>
+      <c r="EG29" s="8">
+        <v>5</v>
+      </c>
+      <c r="EH29" s="8">
+        <v>7</v>
+      </c>
+      <c r="EI29" s="8">
+        <v>4</v>
+      </c>
+      <c r="EJ29" s="8">
+        <v>5</v>
+      </c>
+      <c r="EK29" s="8">
+        <v>4</v>
+      </c>
+      <c r="EL29" s="8">
+        <v>2</v>
+      </c>
+      <c r="EM29" s="8">
+        <v>7</v>
+      </c>
+      <c r="EN29" s="8">
+        <v>4</v>
+      </c>
+      <c r="EO29" s="8">
+        <v>2</v>
+      </c>
+      <c r="EP29" s="8">
+        <v>3</v>
+      </c>
+      <c r="EQ29" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44313.697233796294</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44313.705555555556</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>718</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44313.705565173608</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30">
+        <v>40.742401123046875</v>
+      </c>
+      <c r="O30">
+        <v>-74.032501220703125</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R30">
+        <v>0.9</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30" s="7">
+        <v>7</v>
+      </c>
+      <c r="U30" s="8">
+        <v>7</v>
+      </c>
+      <c r="V30" s="8">
+        <v>7</v>
+      </c>
+      <c r="W30" s="8">
+        <v>6</v>
+      </c>
+      <c r="X30" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ30" s="7">
+        <v>7</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>6</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AP30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX30" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY30" s="9">
+        <v>7</v>
+      </c>
+      <c r="AZ30" s="7">
+        <v>4</v>
+      </c>
+      <c r="BA30" s="8">
+        <v>3</v>
+      </c>
+      <c r="BB30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BC30" s="8">
+        <v>3</v>
+      </c>
+      <c r="BD30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BE30" s="8">
+        <v>4</v>
+      </c>
+      <c r="BF30" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG30" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BI30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BJ30" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BM30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BN30" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO30" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP30" s="7">
+        <v>6</v>
+      </c>
+      <c r="BQ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="BR30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BS30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BT30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU30" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV30" s="8">
+        <v>7</v>
+      </c>
+      <c r="BW30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BX30" s="8">
+        <v>7</v>
+      </c>
+      <c r="BY30" s="8">
+        <v>6</v>
+      </c>
+      <c r="BZ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CA30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CB30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CC30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CD30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CE30" s="9">
+        <v>6</v>
+      </c>
+      <c r="CF30" s="7">
+        <v>6</v>
+      </c>
+      <c r="CG30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ30" s="8">
+        <v>6</v>
+      </c>
+      <c r="CK30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CL30" s="8">
+        <v>6</v>
+      </c>
+      <c r="CM30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CP30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CQ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR30" s="8">
+        <v>6</v>
+      </c>
+      <c r="CS30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CT30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CU30" s="9">
+        <v>7</v>
+      </c>
+      <c r="CV30" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CX30" s="8">
+        <v>6</v>
+      </c>
+      <c r="CY30" s="8">
+        <v>7</v>
+      </c>
+      <c r="CZ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DA30" s="8">
+        <v>6</v>
+      </c>
+      <c r="DB30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DD30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DE30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DG30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DH30" s="8">
+        <v>6</v>
+      </c>
+      <c r="DI30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DJ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DK30" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL30" s="7">
+        <v>7</v>
+      </c>
+      <c r="DM30" s="8">
+        <v>6</v>
+      </c>
+      <c r="DN30" s="8">
+        <v>3</v>
+      </c>
+      <c r="DO30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DP30" s="8">
+        <v>5</v>
+      </c>
+      <c r="DQ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DR30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DS30" s="8">
+        <v>3</v>
+      </c>
+      <c r="DT30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DU30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DV30" s="8">
+        <v>3</v>
+      </c>
+      <c r="DW30" s="8">
+        <v>4</v>
+      </c>
+      <c r="DX30" s="8">
+        <v>3</v>
+      </c>
+      <c r="DY30" s="8">
+        <v>7</v>
+      </c>
+      <c r="DZ30" s="8">
+        <v>3</v>
+      </c>
+      <c r="EA30" s="9">
+        <v>4</v>
+      </c>
+      <c r="EB30" s="7">
+        <v>3</v>
+      </c>
+      <c r="EC30" s="8">
+        <v>3</v>
+      </c>
+      <c r="ED30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EE30" s="8">
+        <v>2</v>
+      </c>
+      <c r="EF30" s="8">
+        <v>5</v>
+      </c>
+      <c r="EG30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EH30" s="8">
+        <v>4</v>
+      </c>
+      <c r="EI30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EJ30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EK30" s="8">
+        <v>3</v>
+      </c>
+      <c r="EL30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EM30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EN30" s="8">
+        <v>3</v>
+      </c>
+      <c r="EO30" s="8">
+        <v>7</v>
+      </c>
+      <c r="EP30" s="8">
+        <v>2</v>
+      </c>
+      <c r="EQ30" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44313.705300925925</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44313.712187500001</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>595</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44313.712198043984</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N31">
+        <v>38.984100341796875</v>
+      </c>
+      <c r="O31">
+        <v>-77.367202758789063</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" s="7">
+        <v>7</v>
+      </c>
+      <c r="U31" s="8">
+        <v>7</v>
+      </c>
+      <c r="V31" s="8">
+        <v>7</v>
+      </c>
+      <c r="W31" s="8">
+        <v>7</v>
+      </c>
+      <c r="X31" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>7</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AP31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR31" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AT31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AU31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AW31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX31" s="8">
+        <v>7</v>
+      </c>
+      <c r="AY31" s="9">
+        <v>4</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>2</v>
+      </c>
+      <c r="BA31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BC31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BD31" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE31" s="8">
+        <v>5</v>
+      </c>
+      <c r="BF31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BG31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH31" s="8">
+        <v>7</v>
+      </c>
+      <c r="BI31" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ31" s="8">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="8">
+        <v>2</v>
+      </c>
+      <c r="BL31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BM31" s="8">
+        <v>1</v>
+      </c>
+      <c r="BN31" s="8">
+        <v>2</v>
+      </c>
+      <c r="BO31" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP31" s="7">
+        <v>7</v>
+      </c>
+      <c r="BQ31" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS31" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT31" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV31" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX31" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY31" s="8">
+        <v>4</v>
+      </c>
+      <c r="BZ31" s="8">
+        <v>5</v>
+      </c>
+      <c r="CA31" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB31" s="8">
+        <v>3</v>
+      </c>
+      <c r="CC31" s="8">
+        <v>6</v>
+      </c>
+      <c r="CD31" s="8">
+        <v>5</v>
+      </c>
+      <c r="CE31" s="9">
+        <v>4</v>
+      </c>
+      <c r="CF31" s="7">
+        <v>7</v>
+      </c>
+      <c r="CG31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CI31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CJ31" s="8">
+        <v>4</v>
+      </c>
+      <c r="CK31" s="8">
+        <v>3</v>
+      </c>
+      <c r="CL31" s="8">
+        <v>3</v>
+      </c>
+      <c r="CM31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CP31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CQ31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR31" s="8">
+        <v>1</v>
+      </c>
+      <c r="CS31" s="8">
+        <v>7</v>
+      </c>
+      <c r="CT31" s="8">
+        <v>3</v>
+      </c>
+      <c r="CU31" s="9">
+        <v>1</v>
+      </c>
+      <c r="CV31" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW31" s="8">
+        <v>5</v>
+      </c>
+      <c r="CX31" s="8">
+        <v>4</v>
+      </c>
+      <c r="CY31" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ31" s="8">
+        <v>4</v>
+      </c>
+      <c r="DA31" s="8">
+        <v>5</v>
+      </c>
+      <c r="DB31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DD31" s="8">
+        <v>6</v>
+      </c>
+      <c r="DE31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DG31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DH31" s="8">
+        <v>6</v>
+      </c>
+      <c r="DI31" s="8">
+        <v>2</v>
+      </c>
+      <c r="DJ31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DK31" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL31" s="7">
+        <v>2</v>
+      </c>
+      <c r="DM31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DN31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DO31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DP31" s="8">
+        <v>5</v>
+      </c>
+      <c r="DQ31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DR31" s="8">
+        <v>4</v>
+      </c>
+      <c r="DS31" s="8">
+        <v>1</v>
+      </c>
+      <c r="DT31" s="8">
+        <v>4</v>
+      </c>
+      <c r="DU31" s="8">
+        <v>7</v>
+      </c>
+      <c r="DV31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DW31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DX31" s="8">
+        <v>2</v>
+      </c>
+      <c r="DY31" s="8">
+        <v>3</v>
+      </c>
+      <c r="DZ31" s="8">
+        <v>1</v>
+      </c>
+      <c r="EA31" s="9">
+        <v>2</v>
+      </c>
+      <c r="EB31" s="7">
+        <v>2</v>
+      </c>
+      <c r="EC31" s="8">
+        <v>3</v>
+      </c>
+      <c r="ED31" s="8">
+        <v>2</v>
+      </c>
+      <c r="EE31" s="8">
+        <v>1</v>
+      </c>
+      <c r="EF31" s="8">
+        <v>5</v>
+      </c>
+      <c r="EG31" s="8">
+        <v>3</v>
+      </c>
+      <c r="EH31" s="8">
+        <v>4</v>
+      </c>
+      <c r="EI31" s="8">
+        <v>5</v>
+      </c>
+      <c r="EJ31" s="8">
+        <v>6</v>
+      </c>
+      <c r="EK31" s="8">
+        <v>2</v>
+      </c>
+      <c r="EL31" s="8">
+        <v>3</v>
+      </c>
+      <c r="EM31" s="8">
+        <v>3</v>
+      </c>
+      <c r="EN31" s="8">
+        <v>2</v>
+      </c>
+      <c r="EO31" s="8">
+        <v>6</v>
+      </c>
+      <c r="EP31" s="8">
+        <v>1</v>
+      </c>
+      <c r="EQ31" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44313.704108796293</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44313.718784722223</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>1268</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44313.718799560185</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32">
+        <v>40.73590087890625</v>
+      </c>
+      <c r="O32">
+        <v>-73.990402221679688</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R32">
+        <v>0.9</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T32" s="7">
+        <v>7</v>
+      </c>
+      <c r="U32" s="8">
+        <v>5</v>
+      </c>
+      <c r="V32" s="8">
+        <v>5</v>
+      </c>
+      <c r="W32" s="8">
+        <v>3</v>
+      </c>
+      <c r="X32" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="9">
+        <v>6</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>6</v>
+      </c>
+      <c r="AW32" s="8">
+        <v>7</v>
+      </c>
+      <c r="AX32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="9">
+        <v>6</v>
+      </c>
+      <c r="AZ32" s="7">
+        <v>4</v>
+      </c>
+      <c r="BA32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BB32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BC32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BD32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BE32" s="8">
+        <v>6</v>
+      </c>
+      <c r="BF32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BG32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BH32" s="8">
+        <v>6</v>
+      </c>
+      <c r="BI32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BJ32" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK32" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL32" s="8">
+        <v>6</v>
+      </c>
+      <c r="BM32" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BO32" s="9">
+        <v>4</v>
+      </c>
+      <c r="BP32" s="7">
+        <v>7</v>
+      </c>
+      <c r="BQ32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR32" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS32" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU32" s="8">
+        <v>7</v>
+      </c>
+      <c r="BV32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW32" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY32" s="8">
+        <v>6</v>
+      </c>
+      <c r="BZ32" s="8">
+        <v>6</v>
+      </c>
+      <c r="CA32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CB32" s="8">
+        <v>3</v>
+      </c>
+      <c r="CC32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CD32" s="8">
+        <v>6</v>
+      </c>
+      <c r="CE32" s="9">
+        <v>7</v>
+      </c>
+      <c r="CF32" s="7">
+        <v>6</v>
+      </c>
+      <c r="CG32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CH32" s="8">
+        <v>5</v>
+      </c>
+      <c r="CI32" s="8">
+        <v>6</v>
+      </c>
+      <c r="CJ32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CK32" s="8">
+        <v>3</v>
+      </c>
+      <c r="CL32" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CN32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CO32" s="8">
+        <v>6</v>
+      </c>
+      <c r="CP32" s="8">
+        <v>6</v>
+      </c>
+      <c r="CQ32" s="8">
+        <v>7</v>
+      </c>
+      <c r="CR32" s="8">
+        <v>1</v>
+      </c>
+      <c r="CS32" s="8">
+        <v>5</v>
+      </c>
+      <c r="CT32" s="8">
+        <v>3</v>
+      </c>
+      <c r="CU32" s="9">
+        <v>2</v>
+      </c>
+      <c r="CV32" s="7">
+        <v>7</v>
+      </c>
+      <c r="CW32" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX32" s="8">
+        <v>3</v>
+      </c>
+      <c r="CY32" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ32" s="8">
+        <v>3</v>
+      </c>
+      <c r="DA32" s="8">
+        <v>6</v>
+      </c>
+      <c r="DB32" s="8">
+        <v>7</v>
+      </c>
+      <c r="DC32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DD32" s="8">
+        <v>4</v>
+      </c>
+      <c r="DE32" s="8">
+        <v>7</v>
+      </c>
+      <c r="DF32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DG32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DH32" s="8">
+        <v>5</v>
+      </c>
+      <c r="DI32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DJ32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DK32" s="9">
+        <v>7</v>
+      </c>
+      <c r="DL32" s="7">
+        <v>2</v>
+      </c>
+      <c r="DM32" s="8">
+        <v>6</v>
+      </c>
+      <c r="DN32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DO32" s="8">
+        <v>6</v>
+      </c>
+      <c r="DP32" s="8">
+        <v>5</v>
+      </c>
+      <c r="DQ32" s="8">
+        <v>5</v>
+      </c>
+      <c r="DR32" s="8">
+        <v>4</v>
+      </c>
+      <c r="DS32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DT32" s="8">
+        <v>5</v>
+      </c>
+      <c r="DU32" s="8">
+        <v>5</v>
+      </c>
+      <c r="DV32" s="8">
+        <v>4</v>
+      </c>
+      <c r="DW32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DX32" s="8">
+        <v>2</v>
+      </c>
+      <c r="DY32" s="8">
+        <v>3</v>
+      </c>
+      <c r="DZ32" s="8">
+        <v>3</v>
+      </c>
+      <c r="EA32" s="9">
+        <v>2</v>
+      </c>
+      <c r="EB32" s="7">
+        <v>3</v>
+      </c>
+      <c r="EC32" s="8">
+        <v>3</v>
+      </c>
+      <c r="ED32" s="8">
+        <v>5</v>
+      </c>
+      <c r="EE32" s="8">
+        <v>5</v>
+      </c>
+      <c r="EF32" s="8">
+        <v>5</v>
+      </c>
+      <c r="EG32" s="8">
+        <v>6</v>
+      </c>
+      <c r="EH32" s="8">
+        <v>7</v>
+      </c>
+      <c r="EI32" s="8">
+        <v>6</v>
+      </c>
+      <c r="EJ32" s="8">
+        <v>2</v>
+      </c>
+      <c r="EK32" s="8">
+        <v>4</v>
+      </c>
+      <c r="EL32" s="8">
+        <v>3</v>
+      </c>
+      <c r="EM32" s="8">
+        <v>6</v>
+      </c>
+      <c r="EN32" s="8">
+        <v>6</v>
+      </c>
+      <c r="EO32" s="8">
+        <v>5</v>
+      </c>
+      <c r="EP32" s="8">
+        <v>2</v>
+      </c>
+      <c r="EQ32" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:147" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44313.660324074073</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44313.758113425924</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>8449</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44313.758127777779</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33">
+        <v>38.960906982421875</v>
+      </c>
+      <c r="O33">
+        <v>-77.342903137207031</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="10">
+        <v>6</v>
+      </c>
+      <c r="U33" s="11">
+        <v>4</v>
+      </c>
+      <c r="V33" s="11">
+        <v>4</v>
+      </c>
+      <c r="W33" s="11">
+        <v>4</v>
+      </c>
+      <c r="X33" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>6</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>4</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AX33" s="11">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="12">
+        <v>4</v>
+      </c>
+      <c r="AZ33" s="10">
+        <v>4</v>
+      </c>
+      <c r="BA33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BB33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BC33" s="11">
+        <v>5</v>
+      </c>
+      <c r="BD33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BE33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BF33" s="11">
+        <v>6</v>
+      </c>
+      <c r="BG33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BH33" s="11">
+        <v>5</v>
+      </c>
+      <c r="BI33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BJ33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BK33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BL33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BM33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BN33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BO33" s="12">
+        <v>4</v>
+      </c>
+      <c r="BP33" s="10">
+        <v>4</v>
+      </c>
+      <c r="BQ33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BR33" s="11">
+        <v>2</v>
+      </c>
+      <c r="BS33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BT33" s="11">
+        <v>6</v>
+      </c>
+      <c r="BU33" s="11">
+        <v>4</v>
+      </c>
+      <c r="BV33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BW33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BX33" s="11">
+        <v>5</v>
+      </c>
+      <c r="BY33" s="11">
+        <v>3</v>
+      </c>
+      <c r="BZ33" s="11">
+        <v>6</v>
+      </c>
+      <c r="CA33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CB33" s="11">
+        <v>2</v>
+      </c>
+      <c r="CC33" s="11">
+        <v>6</v>
+      </c>
+      <c r="CD33" s="11">
+        <v>4</v>
+      </c>
+      <c r="CE33" s="12">
+        <v>4</v>
+      </c>
+      <c r="CF33" s="10">
+        <v>5</v>
+      </c>
+      <c r="CG33" s="11">
+        <v>5</v>
+      </c>
+      <c r="CH33" s="11">
+        <v>6</v>
+      </c>
+      <c r="CI33" s="11">
+        <v>5</v>
+      </c>
+      <c r="CJ33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CK33" s="11">
+        <v>4</v>
+      </c>
+      <c r="CL33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CM33" s="11">
+        <v>6</v>
+      </c>
+      <c r="CN33" s="11">
+        <v>4</v>
+      </c>
+      <c r="CO33" s="11">
+        <v>5</v>
+      </c>
+      <c r="CP33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CQ33" s="11">
+        <v>5</v>
+      </c>
+      <c r="CR33" s="11">
+        <v>2</v>
+      </c>
+      <c r="CS33" s="11">
+        <v>6</v>
+      </c>
+      <c r="CT33" s="11">
+        <v>4</v>
+      </c>
+      <c r="CU33" s="12">
+        <v>3</v>
+      </c>
+      <c r="CV33" s="10">
+        <v>3</v>
+      </c>
+      <c r="CW33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CX33" s="11">
+        <v>3</v>
+      </c>
+      <c r="CY33" s="11">
+        <v>2</v>
+      </c>
+      <c r="CZ33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DA33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DB33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DC33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DD33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DE33" s="11">
+        <v>5</v>
+      </c>
+      <c r="DF33" s="11">
+        <v>2</v>
+      </c>
+      <c r="DG33" s="11">
+        <v>2</v>
+      </c>
+      <c r="DH33" s="11">
+        <v>2</v>
+      </c>
+      <c r="DI33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DJ33" s="11">
+        <v>2</v>
+      </c>
+      <c r="DK33" s="12">
+        <v>5</v>
+      </c>
+      <c r="DL33" s="10">
+        <v>5</v>
+      </c>
+      <c r="DM33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DN33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DO33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DP33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DQ33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DR33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DS33" s="11">
+        <v>2</v>
+      </c>
+      <c r="DT33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DU33" s="11">
+        <v>4</v>
+      </c>
+      <c r="DV33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DW33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DX33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DY33" s="11">
+        <v>3</v>
+      </c>
+      <c r="DZ33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EA33" s="12">
+        <v>3</v>
+      </c>
+      <c r="EB33" s="10">
+        <v>2</v>
+      </c>
+      <c r="EC33" s="11">
+        <v>4</v>
+      </c>
+      <c r="ED33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EE33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EF33" s="11">
+        <v>4</v>
+      </c>
+      <c r="EG33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EH33" s="11">
+        <v>4</v>
+      </c>
+      <c r="EI33" s="11">
+        <v>4</v>
+      </c>
+      <c r="EJ33" s="11">
+        <v>4</v>
+      </c>
+      <c r="EK33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EL33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EM33" s="11">
+        <v>4</v>
+      </c>
+      <c r="EN33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EO33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EP33" s="11">
+        <v>3</v>
+      </c>
+      <c r="EQ33" s="12">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:EQ26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:EQ34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C25 D1:D25 G1:G25 I1:I25 J1:J25 K1:K25 L1:L25 M1:M25 P1:P25 Q1:Q25 S1:S25" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C33 D1:D33 G1:G33 I1:I33 J1:J33 K1:K33 L1:L33 M1:M33 P1:P33 Q1:Q33 S1:S33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>